--- a/Meter Reading Initial Calcs.xlsx
+++ b/Meter Reading Initial Calcs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01b850a7a575a724/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pault\source\repos\PipitGasConversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{32650705-44A6-456A-9455-9A07EC0A445D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E067A4-0D35-4D0C-9364-05EB520446BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB1864-37B3-4DDE-9221-8224D4B5E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28485" yWindow="2550" windowWidth="27150" windowHeight="17400" xr2:uid="{72E57E3D-05C1-47CD-9709-3C222CECF531}"/>
+    <workbookView xWindow="22035" yWindow="3600" windowWidth="27150" windowHeight="17400" xr2:uid="{72E57E3D-05C1-47CD-9709-3C222CECF531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>62532</v>
+        <v>62534</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>B1</f>
@@ -661,7 +661,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>5596</v>
+        <v>5585</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
@@ -671,13 +671,13 @@
       </c>
       <c r="G16" s="7">
         <f ca="1">NOW()</f>
-        <v>44451.967866319443</v>
+        <v>44452.647120486108</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>A16*40*1.02264/3.6</f>
-        <v>63585.482666666663</v>
+        <v>63460.493333333332</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -687,13 +687,13 @@
       </c>
       <c r="G17" s="6">
         <f ca="1">INT(G16-G15)</f>
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>(A17-A15)/B13</f>
-        <v>0.60719462055715456</v>
+        <v>0.53400192122958612</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -702,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="6">
-        <v>0.60719462099999999</v>
+        <v>0.53400192099999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="8">
-        <v>62532</v>
+        <v>62534</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>19</v>
@@ -720,7 +720,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>INT(B13*A18)</f>
-        <v>1053</v>
+        <v>926</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -730,13 +730,13 @@
       </c>
       <c r="G21" s="6">
         <f ca="1">G20+(G17*G18)</f>
-        <v>63584.875472813997</v>
+        <v>63460.493332935002</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>A15+A21</f>
-        <v>63585</v>
+        <v>63460</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -746,13 +746,13 @@
       </c>
       <c r="G22" s="9">
         <f ca="1">ROUNDUP(G21*3.6/1.02264/40,0)</f>
-        <v>5596</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>ROUNDUP(A22*3.6/1.02264/40,0)</f>
-        <v>5596</v>
+        <v>5585</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
